--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -850,6 +850,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -895,35 +896,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,7 +934,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -994,7 +994,7 @@
         <xdr:cNvPr id="15" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,7 +1015,7 @@
           <xdr:cNvPr id="16" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1068,7 +1068,7 @@
           <xdr:cNvPr id="17" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1149,7 +1149,7 @@
         <xdr:cNvPr id="6145" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="6148" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="6149" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
         <xdr:cNvPr id="6151" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1563,7 @@
         <xdr:cNvPr id="6153" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2301,7 @@
         <xdr:cNvPr id="4097" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE0CED37-9213-41F8-AE5C-BD92D9E8CD36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0CED37-9213-41F8-AE5C-BD92D9E8CD36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="4098" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38F8AEAA-EC63-41CB-B18D-F4972DFCE7A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F8AEAA-EC63-41CB-B18D-F4972DFCE7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2437,7 @@
         <xdr:cNvPr id="4099" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E520B76-5763-4DC2-A543-A52E56005BD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E520B76-5763-4DC2-A543-A52E56005BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,20 +3266,20 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -3298,26 +3298,26 @@
     </row>
     <row r="9" spans="1:256" ht="13.05" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="81"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -3336,22 +3336,22 @@
     </row>
     <row r="10" spans="1:256" ht="13.05" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="84"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -3562,26 +3562,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -3597,24 +3597,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -3630,24 +3630,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -3875,12 +3875,12 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="85">
+      <c r="F26" s="86">
         <v>45448</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="23" t="s">
         <v>47</v>
       </c>
@@ -4510,7 +4510,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4524,127 +4524,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="92" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="91"/>
+      <c r="AG2" s="92"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="92" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="89" t="s">
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="91"/>
+      <c r="AG3" s="92"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -5325,7 +5325,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="114"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
@@ -6199,127 +6199,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="100" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="100" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="100" t="s">
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="102"/>
+      <c r="AG2" s="114"/>
     </row>
     <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="100" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="100" t="s">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="102"/>
+      <c r="AG3" s="114"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -6791,98 +6791,98 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="37"/>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="94" t="s">
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="94" t="s">
+      <c r="I12" s="110"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="94" t="s">
+      <c r="L12" s="110"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="94" t="s">
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="96"/>
-      <c r="S12" s="94" t="s">
+      <c r="R12" s="99"/>
+      <c r="S12" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="95"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="94" t="s">
+      <c r="T12" s="98"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="95"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="94" t="s">
+      <c r="W12" s="98"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
       <c r="AF12" s="53"/>
       <c r="AG12" s="39"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="37"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="54" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="111" t="s">
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="107"/>
       <c r="N13" s="54" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="45"/>
       <c r="P13" s="55"/>
-      <c r="Q13" s="111" t="s">
+      <c r="Q13" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="112"/>
-      <c r="S13" s="108" t="s">
+      <c r="R13" s="107"/>
+      <c r="S13" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="105" t="s">
+      <c r="T13" s="104"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="106"/>
-      <c r="X13" s="107"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="102"/>
       <c r="Y13" s="56" t="s">
         <v>33</v>
       </c>
@@ -7901,16 +7901,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -7925,6 +7915,16 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -9,21 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト" sheetId="15" r:id="rId3"/>
+    <sheet name="ログイン画面レイアウト" sheetId="28" r:id="rId3"/>
+    <sheet name="目次画面レイアウト" sheetId="29" r:id="rId4"/>
+    <sheet name="検索画面レイアウト" sheetId="30" r:id="rId5"/>
+    <sheet name="アカウント一覧画面レイアウト" sheetId="34" r:id="rId6"/>
+    <sheet name="登録画面レイアウト" sheetId="31" r:id="rId7"/>
+    <sheet name="登録確認画面レイアウト" sheetId="33" r:id="rId8"/>
+    <sheet name="登録完了画面レイアウト" sheetId="32" r:id="rId9"/>
+    <sheet name="削除画面レイアウト" sheetId="35" r:id="rId10"/>
+    <sheet name="削除確認画面レイアウト" sheetId="36" r:id="rId11"/>
+    <sheet name="削除完了画面レイアウト" sheetId="37" r:id="rId12"/>
+    <sheet name="更新画面レイアウト" sheetId="38" r:id="rId13"/>
+    <sheet name="更新確認画面レイアウト" sheetId="39" r:id="rId14"/>
+    <sheet name="更新完了画面レイアウト" sheetId="40" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">画面レイアウト!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -72,13 +82,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -126,230 +129,18 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>▽</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>～</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>～</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>▽</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SI</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合先カナ名</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキア</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合状況</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキア</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＢＢＢＢＢＢＢＢＢＢ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BBBBBB</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注確度</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>□  ｸﾛｰｽﾞ分も含む</t>
-    <rPh sb="7" eb="9">
-      <t>ブンモ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フクム</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合状況</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注見込金額</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注予定月</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最終営業報告</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最終報告日</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合番号</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合先名</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ZZZZZ6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ZZZ,ZZZ,ZZ6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>YYYY/MM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>版数・リビジョン</t>
@@ -377,20 +168,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>基本設計書</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -418,17 +195,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>生徒管理システム</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロスペクト一覧</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>基本設計書</t>
   </si>
   <si>
@@ -454,6 +220,911 @@
   </si>
   <si>
     <t>D.I.works</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面レイアウト</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作成者：柴田</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作成会社：D.I.works</t>
+    <rPh sb="0" eb="4">
+      <t>サクセイカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>目次画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>●●●さん、ログインしました！</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D.I.Blogについて</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プログラミングに役立つ情報</t>
+    <rPh sb="8" eb="10">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人気の記事</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・PHPおすすめ本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D.I.BlogはD.I.worksが提供する演習課題です。</t>
+    <rPh sb="19" eb="21">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・PHP　MyAdminの使い方</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・今人気のエディタとtop5</t>
+    <rPh sb="1" eb="4">
+      <t>イマニンキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>記事中身</t>
+    <rPh sb="0" eb="4">
+      <t>キジナカミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・HTMLの基礎</t>
+    <rPh sb="6" eb="8">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ドメイン取得方法</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>快適な職場環境</t>
+    <rPh sb="0" eb="2">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>おすすめリンク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Linuxの基礎</t>
+    <rPh sb="6" eb="8">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・ディーアイワークス株式会社</t>
+    <rPh sb="10" eb="14">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マーケティング入門</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・XAMPPのダウンロード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・Eclipseのダウンロード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクティブラーニング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・Bracketsのダウンロード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CSSの効率的な勉強方法</t>
+    <rPh sb="4" eb="7">
+      <t>コウリツテキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ベンキョウホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・HTML</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リーダブルコードとは</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・PHP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・MySQL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HTML5の可能性</t>
+    <rPh sb="6" eb="9">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・JavaScript</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copyright D.I.works|D.I.Blog is the one which provides A to Z about programming</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面レイアウト</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>航昂</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シバタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シバタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>●●●●●</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新宿区</t>
+    <rPh sb="0" eb="3">
+      <t>シンジュクク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歌舞伎町999</t>
+    <rPh sb="0" eb="4">
+      <t>カブキチョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録完了しました</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント検索画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>●未選択〇男　〇女</t>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>未選択</t>
+    <rPh sb="0" eb="3">
+      <t>ミセンタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シバタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>有効</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>りぼく</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダウンタウン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チョコ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>なき</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クッキー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんき</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>びへい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カズオ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ピザ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>無効</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>えいせい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エリザベス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チキン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>りしん</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アブラハム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>おうき</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リンカン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ラブ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>もうぶ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ヘンチャード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メシア</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>おうせん</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリスティ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ライス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>本当に削除してよろしいですか。</t>
+    <rPh sb="0" eb="2">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除完了しました。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -464,7 +1135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -516,13 +1187,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="24"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -559,8 +1223,56 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +1285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -716,23 +1434,77 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom/>
@@ -740,27 +1512,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -791,7 +1602,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -818,55 +1629,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,64 +1676,91 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="4"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
@@ -994,7 +1801,7 @@
         <xdr:cNvPr id="15" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,7 +1822,7 @@
           <xdr:cNvPr id="16" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1068,7 +1875,7 @@
           <xdr:cNvPr id="17" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1129,6 +1936,240 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3314700"/>
+          <a:ext cx="1219200" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3314700"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3147060"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3649980"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1149,7 +2190,7 @@
         <xdr:cNvPr id="6145" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +2442,7 @@
         <xdr:cNvPr id="6148" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +2496,7 @@
         <xdr:cNvPr id="6149" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +2550,7 @@
         <xdr:cNvPr id="6151" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +2604,7 @@
         <xdr:cNvPr id="6153" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,66 +3326,1045 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2514600"/>
+          <a:ext cx="1821180" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>aaa@gmail.com</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="3162300"/>
+          <a:ext cx="1828800" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>aaa12345</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3870960"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2011680"/>
+          <a:ext cx="609600" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940040" y="1844040"/>
+          <a:ext cx="990600" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1173480"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0CED37-9213-41F8-AE5C-BD92D9E8CD36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7385050" y="1657350"/>
-          <a:ext cx="596900" cy="228600"/>
+          <a:off x="3048000" y="1508760"/>
+          <a:ext cx="1219200" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1844040"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2179320"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2514600"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2849880"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3185160"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3520440"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3855720"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4191000"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4526280"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4861560"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="5364480"/>
+          <a:ext cx="1249680" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>印刷</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5364480"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前に戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2353,66 +4373,117 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F8AEAA-EC63-41CB-B18D-F4972DFCE7A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566150" y="1644650"/>
-          <a:ext cx="596900" cy="234950"/>
+          <a:off x="3657600" y="5387340"/>
+          <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>閉じる</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3185160"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2421,66 +4492,168 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E520B76-5763-4DC2-A543-A52E56005BD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6502400" y="1644650"/>
-          <a:ext cx="596900" cy="234950"/>
+          <a:off x="1828800" y="3688080"/>
+          <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>検索</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5699760"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5722620"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3260,26 +5433,26 @@
     </row>
     <row r="8" spans="1:256" ht="13.05" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="68" t="s">
-        <v>42</v>
+      <c r="B8" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="F8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -3298,26 +5471,26 @@
     </row>
     <row r="9" spans="1:256" ht="13.05" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="81"/>
+      <c r="B9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -3336,22 +5509,22 @@
     </row>
     <row r="10" spans="1:256" ht="13.05" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="84"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -3562,26 +5735,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="H17" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -3597,24 +5770,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -3630,24 +5803,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -3758,7 +5931,7 @@
     <row r="23" spans="1:32" ht="13.05" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -3826,19 +5999,19 @@
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="23" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
       <c r="F25" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -3859,10 +6032,10 @@
       <c r="AA25" s="24"/>
       <c r="AB25" s="25"/>
       <c r="AC25" s="27" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AD25" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" s="14"/>
       <c r="AF25" s="19"/>
@@ -3870,19 +6043,19 @@
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="23" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="86">
+      <c r="F26" s="63">
         <v>45448</v>
       </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="23" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -3904,7 +6077,7 @@
       <c r="AB26" s="25"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="25" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AE26" s="14"/>
       <c r="AF26" s="19"/>
@@ -4505,11 +6678,982 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="124"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76">
+        <v>1111000</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="75"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="75"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="77"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="77"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="77"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="77"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="75"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="75"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="75"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.4">
+      <c r="B13" s="77"/>
+      <c r="C13" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:H13"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="75"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="75"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.4">
+      <c r="B13" s="77"/>
+      <c r="C13" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="75"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="75"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="74"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
@@ -4524,127 +7668,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="90" t="s">
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="92"/>
+      <c r="AG2" s="69"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG3" s="92"/>
+      <c r="A3" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="69"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -5325,7 +8469,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="69"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
@@ -6017,7 +9161,7 @@
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -6182,1757 +9326,3174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FU42"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.109375" style="40" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="38" customWidth="1"/>
-    <col min="7" max="30" width="4.109375" style="40" customWidth="1"/>
-    <col min="31" max="33" width="4.109375" style="67" customWidth="1"/>
-    <col min="34" max="37" width="4" style="40" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="40"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-    </row>
-    <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="112" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="82"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="77"/>
+      <c r="C20" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="75"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="75"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="77"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="77"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="77"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="74"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="75"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="91"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="93"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="91"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="91"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="94">
+        <v>42750</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="93"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="91"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="93"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="91"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="91"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="91"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="93"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="91"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="114"/>
-    </row>
-    <row r="3" spans="1:177" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="93"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="91"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="91"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="112" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="15"/>
-      <c r="BW3" s="15"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="15"/>
-      <c r="CC3" s="15"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
-      <c r="CI3" s="15"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="15"/>
-      <c r="CL3" s="15"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="15"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="15"/>
-      <c r="CQ3" s="15"/>
-      <c r="CR3" s="15"/>
-      <c r="CS3" s="15"/>
-      <c r="CT3" s="15"/>
-      <c r="CU3" s="15"/>
-      <c r="CV3" s="15"/>
-      <c r="CW3" s="15"/>
-      <c r="CX3" s="15"/>
-      <c r="CY3" s="15"/>
-      <c r="CZ3" s="15"/>
-      <c r="DA3" s="15"/>
-      <c r="DB3" s="15"/>
-      <c r="DC3" s="15"/>
-      <c r="DD3" s="15"/>
-      <c r="DE3" s="15"/>
-      <c r="DF3" s="15"/>
-      <c r="DG3" s="15"/>
-      <c r="DH3" s="15"/>
-      <c r="DI3" s="15"/>
-      <c r="DJ3" s="15"/>
-      <c r="DK3" s="15"/>
-      <c r="DL3" s="15"/>
-      <c r="DM3" s="15"/>
-      <c r="DN3" s="15"/>
-      <c r="DO3" s="15"/>
-      <c r="DP3" s="15"/>
-      <c r="DQ3" s="15"/>
-      <c r="DR3" s="15"/>
-      <c r="DS3" s="15"/>
-      <c r="DT3" s="15"/>
-      <c r="DU3" s="15"/>
-      <c r="DV3" s="15"/>
-      <c r="DW3" s="15"/>
-      <c r="DX3" s="15"/>
-      <c r="DY3" s="15"/>
-      <c r="DZ3" s="15"/>
-      <c r="EA3" s="15"/>
-      <c r="EB3" s="15"/>
-      <c r="EC3" s="15"/>
-      <c r="ED3" s="15"/>
-      <c r="EE3" s="15"/>
-      <c r="EF3" s="15"/>
-      <c r="EG3" s="15"/>
-      <c r="EH3" s="15"/>
-      <c r="EI3" s="15"/>
-      <c r="EJ3" s="15"/>
-      <c r="EK3" s="15"/>
-      <c r="EL3" s="15"/>
-      <c r="EM3" s="15"/>
-      <c r="EN3" s="15"/>
-      <c r="EO3" s="15"/>
-      <c r="EP3" s="15"/>
-      <c r="EQ3" s="15"/>
-      <c r="ER3" s="15"/>
-      <c r="ES3" s="15"/>
-      <c r="ET3" s="15"/>
-      <c r="EU3" s="15"/>
-      <c r="EV3" s="15"/>
-      <c r="EW3" s="15"/>
-      <c r="EX3" s="15"/>
-      <c r="EY3" s="15"/>
-      <c r="EZ3" s="15"/>
-      <c r="FA3" s="15"/>
-      <c r="FB3" s="15"/>
-      <c r="FC3" s="15"/>
-      <c r="FD3" s="15"/>
-      <c r="FE3" s="15"/>
-      <c r="FF3" s="15"/>
-      <c r="FG3" s="15"/>
-      <c r="FH3" s="15"/>
-      <c r="FI3" s="15"/>
-      <c r="FJ3" s="15"/>
-      <c r="FK3" s="15"/>
-      <c r="FL3" s="15"/>
-      <c r="FM3" s="15"/>
-      <c r="FN3" s="15"/>
-      <c r="FO3" s="15"/>
-      <c r="FP3" s="15"/>
-      <c r="FQ3" s="15"/>
-      <c r="FR3" s="15"/>
-      <c r="FS3" s="15"/>
-      <c r="FT3" s="15"/>
-      <c r="FU3" s="15"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="36"/>
-    </row>
-    <row r="5" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="39"/>
-    </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="39"/>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="39"/>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="39"/>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="39"/>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="39"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="39"/>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="99"/>
-      <c r="S12" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="98"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="98"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="39"/>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="104"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="101"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG13" s="39"/>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="39"/>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="39"/>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="39"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="39"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="39"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="39"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="39"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="39"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="39"/>
-    </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="39"/>
-    </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="39"/>
-    </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="39"/>
-    </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="39"/>
-    </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="39"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="39"/>
-    </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="39"/>
-    </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="39"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="39"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="39"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="39"/>
-    </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="39"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="39"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="39"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="39"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="39"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG39" s="39"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="39"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="39"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="43"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="93"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="91"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="93"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="91"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="93"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="91"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="93"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="91"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="93"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="91"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="93"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="91"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="95"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="93"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="91"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="93"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="91"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="95"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="93"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="91"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="93"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="91"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="93"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="91"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="93"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="85"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
+  <mergeCells count="11">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:J34"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="82"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="77"/>
+      <c r="C8" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="77"/>
+      <c r="C9" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="77"/>
+      <c r="C10" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="114"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="77"/>
+      <c r="C11" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="75"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="73"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="75"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="75"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="75"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="75"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="75"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="75"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="75"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="77"/>
+      <c r="C15" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="121"/>
+      <c r="P15" s="75"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="77"/>
+      <c r="C16" s="119">
+        <v>10</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="123">
+        <v>45292</v>
+      </c>
+      <c r="M16" s="123">
+        <v>45383</v>
+      </c>
+      <c r="N16" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="75"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="77"/>
+      <c r="C17" s="119">
+        <v>9</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="123">
+        <v>45364</v>
+      </c>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="75"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="77"/>
+      <c r="C18" s="119">
+        <v>8</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="123">
+        <v>45365</v>
+      </c>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="77"/>
+      <c r="C19" s="119">
+        <v>7</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="123">
+        <v>45366</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O19" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="75"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="77"/>
+      <c r="C20" s="119">
+        <v>6</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="123">
+        <v>45367</v>
+      </c>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="77"/>
+      <c r="C21" s="119">
+        <v>5</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="123">
+        <v>45368</v>
+      </c>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="75"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="77"/>
+      <c r="C22" s="119">
+        <v>4</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="123">
+        <v>45369</v>
+      </c>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="75"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="77"/>
+      <c r="C23" s="119">
+        <v>3</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="123">
+        <v>45370</v>
+      </c>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="75"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="77"/>
+      <c r="C24" s="119">
+        <v>2</v>
+      </c>
+      <c r="D24" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="123">
+        <v>45371</v>
+      </c>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="75"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="77"/>
+      <c r="C25" s="119">
+        <v>1</v>
+      </c>
+      <c r="D25" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="123">
+        <v>45372</v>
+      </c>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="75"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="75"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="75"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="75"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="75"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="75"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="75"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="75"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="75"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="77"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="75"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N15:O15"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1"/>
+    <hyperlink ref="H17:H25" r:id="rId2" display="aaa@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="75"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="75"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="77"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="77"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76">
+        <v>1111000</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="75"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="77"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="75"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="75"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="75"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="77"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="77"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="77"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="77"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="77"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="75"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="75"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="77"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="75"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="77"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="75"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="77"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="77"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="77"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="77"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="77"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="77"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="77"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="75"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="77"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="75"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="77"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="74"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="184">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1123,6 +1123,162 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力した内容はこちらでよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>よろしければ「登録する」を押してください。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シバタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>kkk@gmail.com</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>*パスワードが未入力の場合はパスワード変更されません*</t>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="3">
+      <t>チバケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>千葉市</t>
+    <rPh sb="0" eb="3">
+      <t>チバシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成田山999</t>
+    <rPh sb="0" eb="2">
+      <t>ナリタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面レイアウト</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新が完了しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1571,7 +1727,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1631,6 +1787,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -1676,60 +1878,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1739,16 +1899,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="6" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1756,6 +1912,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2133,6 +2295,978 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1828800" y="3649980"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1341120"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>柴田</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1676400"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>航昂</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2011680"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シバタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2346960"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カナタ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2682240"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>aaa@gmail.com</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3352800"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>男</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3688080"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1111000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4023360"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>東京都</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4358640"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新宿区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4693920"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>歌舞伎町</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>999</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="5029200"/>
+          <a:ext cx="1219200" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="5532120"/>
+          <a:ext cx="1249680" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3017520"/>
+          <a:ext cx="1226820" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="5699760"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="5699760"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2514600"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3017520"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4962,7 +6096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -5439,20 +6573,20 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -5471,26 +6605,26 @@
     </row>
     <row r="9" spans="1:256" ht="13.05" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="56" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -5509,22 +6643,22 @@
     </row>
     <row r="10" spans="1:256" ht="13.05" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="61"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="105"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -5735,26 +6869,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -5770,24 +6904,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -5803,24 +6937,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -6048,12 +7182,12 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="63">
+      <c r="F26" s="107">
         <v>45448</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="23" t="s">
         <v>14</v>
       </c>
@@ -6682,7 +7816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -6705,397 +7839,397 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="124"/>
+      <c r="B5" s="90"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="75"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="75"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="108" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="75"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="51"/>
+      <c r="F20" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="75"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76">
+      <c r="E22" s="51"/>
+      <c r="F22" s="51">
         <v>1111000</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="75"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="75"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="77"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="75"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="77"/>
-      <c r="C32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="75"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="77"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="77"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="77"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="75"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="77"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="75"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="74"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="72"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -7134,81 +8268,81 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="75"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" ht="23.4">
-      <c r="B13" s="77"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="125" t="s">
         <v>162</v>
       </c>
@@ -7219,148 +8353,148 @@
       <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="75"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="75"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="75"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="75"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="75"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="74"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="72"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7399,200 +8533,200 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="23.4">
-      <c r="B13" s="77"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="127" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="127"/>
       <c r="F13" s="127"/>
-      <c r="G13" s="75"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="75"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="75"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="74"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="72"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7606,46 +8740,1161 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="50"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="47"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="50"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51">
+        <v>1111000</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="50"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="50"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="50"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="52"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="49"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="47"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="47"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7653,7 +9902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
@@ -7668,127 +9917,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="67" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="70" t="s">
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="67" t="s">
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="69"/>
+      <c r="AG2" s="113"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="70" t="s">
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="67" t="s">
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="69"/>
+      <c r="AG3" s="113"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -9328,7 +11577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -9351,362 +11600,362 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="82"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="75"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="75"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="75"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="75"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="75"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="77"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="75"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="75"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="77"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="75"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="77"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="77"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="77"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="75"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="74"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="72"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -9742,466 +11991,466 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="91"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="93"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="91"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="78" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="78" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="93"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="91"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="94">
+      <c r="B11" s="66"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="117">
         <v>42750</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76" t="s">
+      <c r="E11" s="117"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="93"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="91"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="93"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="91"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="93"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="91"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="95" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="93"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="91"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="95" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="93"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="91"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="95" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="78" t="s">
+      <c r="E16" s="116"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="93"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="91"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="95" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="93"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="91"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="95" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76" t="s">
+      <c r="E18" s="116"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="93"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="91"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="93"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="91"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="95" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="93"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="91"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="93"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="91"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="95" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="78" t="s">
+      <c r="E22" s="116"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="93"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="91"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="93"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="91"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="95" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="93"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="91"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="93"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="91"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="95" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="93"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="91"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="93"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="91"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="93"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="91"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="93"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="74"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="102" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="85"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="85"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="85"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10210,12 +12459,12 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D31:J34"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10226,8 +12475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10249,301 +12498,304 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="82"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="77"/>
-      <c r="C8" s="110" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="75"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="77"/>
-      <c r="C9" s="110" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="75"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="77"/>
-      <c r="C10" s="110" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112" t="s">
+      <c r="D10" s="82"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="75"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="77"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="115" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="75"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="75"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="75"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="75"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="75"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="74"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="72"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10554,7 +12806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -10577,817 +12829,817 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="110" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="75"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="75"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="116" t="s">
+      <c r="K9" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="75"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="74" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="111" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="75"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="77"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="119" t="s">
+      <c r="L15" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="119" t="s">
+      <c r="M15" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="120" t="s">
+      <c r="N15" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="121"/>
-      <c r="P15" s="75"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="77"/>
-      <c r="C16" s="119">
+      <c r="B16" s="52"/>
+      <c r="C16" s="87">
         <v>10</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="119" t="s">
+      <c r="I16" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="119" t="s">
+      <c r="K16" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="89">
         <v>45292</v>
       </c>
-      <c r="M16" s="123">
+      <c r="M16" s="89">
         <v>45383</v>
       </c>
-      <c r="N16" s="119" t="s">
+      <c r="N16" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="75"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="77"/>
-      <c r="C17" s="119">
+      <c r="B17" s="52"/>
+      <c r="C17" s="87">
         <v>9</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="119" t="s">
+      <c r="F17" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="119" t="s">
+      <c r="G17" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="119" t="s">
+      <c r="J17" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="123">
+      <c r="L17" s="89">
         <v>45364</v>
       </c>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119" t="s">
+      <c r="M17" s="87"/>
+      <c r="N17" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="119" t="s">
+      <c r="O17" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="75"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="77"/>
-      <c r="C18" s="119">
+      <c r="B18" s="52"/>
+      <c r="C18" s="87">
         <v>8</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="119" t="s">
+      <c r="I18" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="119" t="s">
+      <c r="J18" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="119" t="s">
+      <c r="K18" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="123">
+      <c r="L18" s="89">
         <v>45365</v>
       </c>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119" t="s">
+      <c r="M18" s="87"/>
+      <c r="N18" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O18" s="119" t="s">
+      <c r="O18" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="75"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="77"/>
-      <c r="C19" s="119">
+      <c r="B19" s="52"/>
+      <c r="C19" s="87">
         <v>7</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="122" t="s">
+      <c r="H19" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="119" t="s">
+      <c r="I19" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="119" t="s">
+      <c r="J19" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="119" t="s">
+      <c r="K19" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="123">
+      <c r="L19" s="89">
         <v>45366</v>
       </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119" t="s">
+      <c r="M19" s="87"/>
+      <c r="N19" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O19" s="119" t="s">
+      <c r="O19" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="75"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="77"/>
-      <c r="C20" s="119">
+      <c r="B20" s="52"/>
+      <c r="C20" s="87">
         <v>6</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="119" t="s">
+      <c r="G20" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="122" t="s">
+      <c r="H20" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I20" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="119" t="s">
+      <c r="J20" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="123">
+      <c r="L20" s="89">
         <v>45367</v>
       </c>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119" t="s">
+      <c r="M20" s="87"/>
+      <c r="N20" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="119" t="s">
+      <c r="O20" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="75"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="77"/>
-      <c r="C21" s="119">
+      <c r="B21" s="52"/>
+      <c r="C21" s="87">
         <v>5</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="119" t="s">
+      <c r="J21" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="119" t="s">
+      <c r="K21" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="123">
+      <c r="L21" s="89">
         <v>45368</v>
       </c>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119" t="s">
+      <c r="M21" s="87"/>
+      <c r="N21" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="119" t="s">
+      <c r="O21" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="75"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="77"/>
-      <c r="C22" s="119">
+      <c r="B22" s="52"/>
+      <c r="C22" s="87">
         <v>4</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="119" t="s">
+      <c r="I22" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="119" t="s">
+      <c r="J22" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="119" t="s">
+      <c r="K22" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L22" s="123">
+      <c r="L22" s="89">
         <v>45369</v>
       </c>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119" t="s">
+      <c r="M22" s="87"/>
+      <c r="N22" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="119" t="s">
+      <c r="O22" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="75"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="77"/>
-      <c r="C23" s="119">
+      <c r="B23" s="52"/>
+      <c r="C23" s="87">
         <v>3</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="119" t="s">
+      <c r="F23" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="119" t="s">
+      <c r="I23" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="119" t="s">
+      <c r="J23" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="119" t="s">
+      <c r="K23" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="123">
+      <c r="L23" s="89">
         <v>45370</v>
       </c>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119" t="s">
+      <c r="M23" s="87"/>
+      <c r="N23" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="119" t="s">
+      <c r="O23" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P23" s="75"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="77"/>
-      <c r="C24" s="119">
+      <c r="B24" s="52"/>
+      <c r="C24" s="87">
         <v>2</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="119" t="s">
+      <c r="G24" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="119" t="s">
+      <c r="I24" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="119" t="s">
+      <c r="J24" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="119" t="s">
+      <c r="K24" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="123">
+      <c r="L24" s="89">
         <v>45371</v>
       </c>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119" t="s">
+      <c r="M24" s="87"/>
+      <c r="N24" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O24" s="119" t="s">
+      <c r="O24" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="75"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="77"/>
-      <c r="C25" s="119">
+      <c r="B25" s="52"/>
+      <c r="C25" s="87">
         <v>1</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="119" t="s">
+      <c r="F25" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="119" t="s">
+      <c r="G25" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="119" t="s">
+      <c r="I25" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="119" t="s">
+      <c r="J25" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="119" t="s">
+      <c r="K25" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="123">
+      <c r="L25" s="89">
         <v>45372</v>
       </c>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119" t="s">
+      <c r="M25" s="87"/>
+      <c r="N25" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="119" t="s">
+      <c r="O25" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="75"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="75"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="77"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="75"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="75"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="77"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="75"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="75"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="77"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="75"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="74"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="72"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11408,7 +13660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -11431,382 +13683,382 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="75"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="75"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="75"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="75"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="75"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="75"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="77"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="75"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="75"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="77"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="75"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="77"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="77"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="72"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -11842,406 +14094,406 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="75"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="75"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="108" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="75"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="51"/>
+      <c r="F20" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="75"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76">
+      <c r="E22" s="51"/>
+      <c r="F22" s="51">
         <v>1111000</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="75"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="75"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="77"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="77"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="75"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="77"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="77"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="75"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="77"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="77"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="72"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -12280,216 +14532,216 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="77"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="77"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="77"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="75"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="75"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="77"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="75"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="109" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="75"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="75"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="75"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="75"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="75"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="75"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="77"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="75"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="77"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="77"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="77"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="75"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="77"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="75"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="74"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -1727,7 +1727,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1881,14 +1881,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1914,12 +1920,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
@@ -1963,7 +1970,7 @@
         <xdr:cNvPr id="15" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F9AFC-64BB-48D7-88F8-7E9E7F945DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1991,7 @@
           <xdr:cNvPr id="16" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454EC17F-2968-469C-94CB-555C9EFDAF08}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2037,7 +2044,7 @@
           <xdr:cNvPr id="17" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AB3B4F-7AE1-44E0-B543-618F774D1631}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3324,7 +3331,7 @@
         <xdr:cNvPr id="6145" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3583,7 @@
         <xdr:cNvPr id="6148" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3630,7 +3637,7 @@
         <xdr:cNvPr id="6149" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3691,7 @@
         <xdr:cNvPr id="6151" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,7 +3745,7 @@
         <xdr:cNvPr id="6153" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7816,8 +7823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7842,20 +7849,20 @@
       <c r="B5" s="90"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="52"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -8221,15 +8228,15 @@
       <c r="J37" s="50"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="49"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="47"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -8246,7 +8253,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B29" sqref="B29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8268,18 +8275,18 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -8343,14 +8350,14 @@
     </row>
     <row r="13" spans="1:8" ht="23.4">
       <c r="B13" s="52"/>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="52"/>
@@ -8488,13 +8495,13 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="47"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8511,7 +8518,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8533,17 +8540,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -8600,12 +8607,12 @@
     </row>
     <row r="13" spans="1:7" ht="23.4">
       <c r="B13" s="52"/>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7">
@@ -8721,12 +8728,12 @@
       <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8742,8 +8749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8765,20 +8772,20 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="52"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -9119,15 +9126,15 @@
       <c r="J36" s="50"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="47"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -9140,8 +9147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9163,22 +9170,22 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="55"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -9191,9 +9198,7 @@
       <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="52" t="s">
-        <v>171</v>
-      </c>
+      <c r="B7" s="52"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -9207,7 +9212,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
@@ -9221,7 +9226,9 @@
       <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="52"/>
+      <c r="B9" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -9646,17 +9653,17 @@
       <c r="L37" s="50"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="49"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="47"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -9673,7 +9680,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9695,17 +9702,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -9883,12 +9890,12 @@
       <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -11577,8 +11584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11600,15 +11607,15 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="57"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="52"/>
@@ -11947,15 +11954,15 @@
       <c r="J36" s="50"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="47"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -12091,10 +12098,10 @@
     <row r="11" spans="1:12">
       <c r="B11" s="66"/>
       <c r="C11" s="51"/>
-      <c r="D11" s="117">
+      <c r="D11" s="119">
         <v>42750</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="51"/>
       <c r="G11" s="67"/>
       <c r="H11" s="51"/>
@@ -12401,70 +12408,70 @@
     <row r="31" spans="2:12">
       <c r="B31" s="58"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
       <c r="K31" s="59"/>
       <c r="L31" s="60"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
       <c r="K32" s="59"/>
       <c r="L32" s="60"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="58"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
       <c r="K33" s="59"/>
       <c r="L33" s="60"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="75"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
       <c r="K34" s="76"/>
       <c r="L34" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:J34"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:J34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12475,8 +12482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12498,15 +12505,15 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="54" t="s">
@@ -12585,10 +12592,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="129"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="47"/>
       <c r="H11" s="48"/>
       <c r="I11" s="47"/>
@@ -12782,15 +12789,15 @@
       <c r="J28" s="50"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="47"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12806,8 +12813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12829,26 +12836,26 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="132"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="55"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="48"/>
@@ -12920,11 +12927,11 @@
       <c r="J9" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="50"/>
@@ -13053,10 +13060,10 @@
       <c r="M15" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="123" t="s">
+      <c r="N15" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="124"/>
+      <c r="O15" s="126"/>
       <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16">
@@ -13625,21 +13632,21 @@
       <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="47"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="134"/>
+      <c r="P35" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13660,8 +13667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13683,20 +13690,20 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -14050,15 +14057,15 @@
       <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="47"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -14071,8 +14078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14094,20 +14101,20 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -14485,15 +14492,15 @@
       <c r="J35" s="50"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="47"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -14510,7 +14517,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14532,17 +14539,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="52"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -14736,12 +14743,12 @@
       <c r="G29" s="50"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
